--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4068990.642373441</v>
+        <v>4066594.986368259</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>42.7673471940124</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>33.97211010620912</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.24425194834653</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>185.9562545743392</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>136.2597885580371</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186934</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>196.6719053272855</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.71437374394026</v>
+        <v>92.71437374394024</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>23.29204363825428</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>121.0530406343889</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>62.39747685266919</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>113.3500669601081</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>11.52502338186934</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.71437374394026</v>
+        <v>92.71437374394024</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>43.18443080422959</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>58.22220895261283</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695751</v>
       </c>
     </row>
     <row r="14">
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>215.2549371307846</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329571</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1610.117490991378</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.154974050967</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8892754442161</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="E2" t="n">
-        <v>497.1010228459718</v>
+        <v>882.1042769845554</v>
       </c>
       <c r="F2" t="n">
-        <v>86.11511805636428</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0043429178248</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>1092.198364333236</v>
+        <v>525.3175166702108</v>
       </c>
       <c r="M2" t="n">
-        <v>1388.26893089084</v>
+        <v>1166.340726290105</v>
       </c>
       <c r="N2" t="n">
-        <v>1693.744037126425</v>
+        <v>1471.81583252569</v>
       </c>
       <c r="O2" t="n">
-        <v>1968.860256443059</v>
+        <v>2077.249136779522</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2277.553464068626</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4355,25 +4355,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2336.351904522572</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2336.351904522572</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1983.583249252458</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>1610.117490991378</v>
+        <v>925.303617584568</v>
       </c>
       <c r="Y2" t="n">
-        <v>1610.117490991378</v>
+        <v>925.303617584568</v>
       </c>
     </row>
     <row r="3">
@@ -4395,34 +4395,34 @@
         <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>173.7995747938168</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>295.2226670640958</v>
       </c>
       <c r="L3" t="n">
-        <v>794.7800573025183</v>
+        <v>871.9454821673514</v>
       </c>
       <c r="M3" t="n">
-        <v>1123.044995703283</v>
+        <v>1512.968691787245</v>
       </c>
       <c r="N3" t="n">
-        <v>1408.378866136616</v>
+        <v>1798.302562220579</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972037</v>
+        <v>2037.107513972038</v>
       </c>
       <c r="P3" t="n">
         <v>2524.714615879285</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.5199438722344</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="C4" t="n">
-        <v>203.5199438722344</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="D4" t="n">
-        <v>203.5199438722344</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E4" t="n">
-        <v>203.5199438722344</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
-        <v>203.5199438722344</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>203.5199438722344</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
         <v>51.79985532281972</v>
@@ -4486,7 +4486,7 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4510,28 +4510,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1148.851085118379</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>924.4399258938173</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>924.4399258938173</v>
       </c>
       <c r="V4" t="n">
-        <v>1123.367708780982</v>
+        <v>669.7554376879305</v>
       </c>
       <c r="W4" t="n">
-        <v>833.9505387440215</v>
+        <v>380.3382676509698</v>
       </c>
       <c r="X4" t="n">
-        <v>605.9609878460042</v>
+        <v>380.3382676509698</v>
       </c>
       <c r="Y4" t="n">
-        <v>385.1684087024741</v>
+        <v>380.3382676509698</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1329.746324659711</v>
+        <v>631.7791126460324</v>
       </c>
       <c r="C5" t="n">
-        <v>1329.746324659711</v>
+        <v>494.1429625874091</v>
       </c>
       <c r="D5" t="n">
-        <v>1329.746324659711</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="E5" t="n">
-        <v>943.9580720614667</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>128.9317632314551</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4568,19 +4568,19 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135513</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.613300747739</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2267.157095331149</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2013.577867273396</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="V5" t="n">
-        <v>1682.514979929825</v>
+        <v>2134.75269821716</v>
       </c>
       <c r="W5" t="n">
-        <v>1329.746324659711</v>
+        <v>1781.984042947046</v>
       </c>
       <c r="X5" t="n">
-        <v>1329.746324659711</v>
+        <v>1408.518284685966</v>
       </c>
       <c r="Y5" t="n">
-        <v>1329.746324659711</v>
+        <v>1018.378952710154</v>
       </c>
     </row>
     <row r="6">
@@ -4629,40 +4629,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>240.115382809621</v>
       </c>
       <c r="K6" t="n">
-        <v>688.5974568552863</v>
+        <v>426.7768722128338</v>
       </c>
       <c r="L6" t="n">
-        <v>985.909405971601</v>
+        <v>724.0888213291487</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.215295463926</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N6" t="n">
-        <v>1742.624856789669</v>
+        <v>1652.830557277515</v>
       </c>
       <c r="O6" t="n">
-        <v>2077.5535375052</v>
+        <v>1987.759237993046</v>
       </c>
       <c r="P6" t="n">
-        <v>2327.030265370218</v>
+        <v>2237.235965858065</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1062.188268807</v>
+        <v>370.8526776630624</v>
       </c>
       <c r="C7" t="n">
-        <v>893.2520858790926</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D7" t="n">
-        <v>743.1354464667569</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E7" t="n">
-        <v>620.859647846162</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>473.9697003482516</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080555</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225446</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317425</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
-        <v>1391.602671897099</v>
+        <v>1391.6026718971</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1450.534004159848</v>
       </c>
       <c r="T7" t="n">
-        <v>1544.862307910904</v>
+        <v>1227.599429701829</v>
       </c>
       <c r="U7" t="n">
-        <v>1544.862307910904</v>
+        <v>938.4816527122273</v>
       </c>
       <c r="V7" t="n">
-        <v>1290.177819705017</v>
+        <v>683.7971645063404</v>
       </c>
       <c r="W7" t="n">
-        <v>1290.177819705017</v>
+        <v>394.3799944693798</v>
       </c>
       <c r="X7" t="n">
-        <v>1062.188268807</v>
+        <v>394.3799944693798</v>
       </c>
       <c r="Y7" t="n">
-        <v>1062.188268807</v>
+        <v>394.3799944693798</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>502.3770651685344</v>
+        <v>912.4625122930331</v>
       </c>
       <c r="C8" t="n">
-        <v>133.4145482281227</v>
+        <v>912.4625122930331</v>
       </c>
       <c r="D8" t="n">
-        <v>70.38679383148718</v>
+        <v>554.1968136862827</v>
       </c>
       <c r="E8" t="n">
-        <v>70.38679383148718</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
@@ -4805,19 +4805,19 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135513</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2336.413538083233</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2005.350650739662</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="W8" t="n">
-        <v>1652.581995469548</v>
+        <v>1672.528110618235</v>
       </c>
       <c r="X8" t="n">
-        <v>1279.116237208468</v>
+        <v>1299.062352357155</v>
       </c>
       <c r="Y8" t="n">
-        <v>888.9769052326562</v>
+        <v>1299.062352357155</v>
       </c>
     </row>
     <row r="9">
@@ -4866,43 +4866,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682815</v>
+        <v>563.7673318682819</v>
       </c>
       <c r="L9" t="n">
-        <v>861.0792809845962</v>
+        <v>861.0792809845967</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.385170476922</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N9" t="n">
-        <v>1617.794731802664</v>
+        <v>1627.746635452983</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.723412518195</v>
+        <v>1962.675316168514</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>683.5152680691407</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C10" t="n">
-        <v>514.5790851412338</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D10" t="n">
-        <v>514.5790851412338</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4960,52 +4960,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080555</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225446</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317425</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1391.602671897099</v>
+        <v>1391.6026718971</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153879</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910905</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916874</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1125.478067458855</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>836.3602904692532</v>
       </c>
       <c r="V10" t="n">
-        <v>1603.363032977888</v>
+        <v>581.6758022633663</v>
       </c>
       <c r="W10" t="n">
-        <v>1313.945862940928</v>
+        <v>292.2586322264057</v>
       </c>
       <c r="X10" t="n">
-        <v>1085.95631204291</v>
+        <v>233.4483201530594</v>
       </c>
       <c r="Y10" t="n">
-        <v>865.1637328993804</v>
+        <v>233.4483201530594</v>
       </c>
     </row>
     <row r="11">
@@ -5024,34 +5024,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5060,22 +5060,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2222.001901828446</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5255,37 +5255,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>214.9229991561132</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>710.248605371872</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5495,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616109</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,19 +6695,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,31 +6950,31 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7181,10 +7181,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2149.810879820877</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.3648890881006</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942334</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>333.6536211486845</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159724</v>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>97.66080065036977</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>64.97515849017861</v>
+        <v>380.892604166067</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>173.7639243740385</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>119.3759750973111</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906574</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>10.0524279296144</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>245.46701043772</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.18682368251973</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.329716221310235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.71423459433115</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>626424.7352896696</v>
+        <v>626424.7352896695</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>626424.7352896696</v>
+        <v>626424.7352896695</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610849.4454526155</v>
+        <v>610849.4454526156</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>610849.4454526156</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>610849.4454526156</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
     <row r="14">
@@ -26314,31 +26314,31 @@
         <v>821041.7698642828</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="F2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
         <v>807146.599690006</v>
@@ -26347,13 +26347,13 @@
         <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898927</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.867745751</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260482</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695033</v>
+        <v>6287.48053169507</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695111</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695064</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="I4" t="n">
+        <v>6287.480531695059</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695106</v>
+      </c>
+      <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.480531695063</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>6287.480531695026</v>
+      </c>
+      <c r="N4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="L4" t="n">
-        <v>6287.480531695037</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695065</v>
-      </c>
       <c r="O4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695044</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-367772.0797232665</v>
+        <v>-367772.0797232667</v>
       </c>
       <c r="C6" t="n">
-        <v>425729.5659876336</v>
+        <v>425729.5659876334</v>
       </c>
       <c r="D6" t="n">
         <v>598493.9257775256</v>
       </c>
       <c r="E6" t="n">
-        <v>198847.7215886527</v>
+        <v>198812.9836632176</v>
       </c>
       <c r="F6" t="n">
-        <v>699736.5893344039</v>
+        <v>699701.8514089686</v>
       </c>
       <c r="G6" t="n">
-        <v>699736.5893344044</v>
+        <v>699701.8514089683</v>
       </c>
       <c r="H6" t="n">
-        <v>699736.589334404</v>
+        <v>699701.8514089683</v>
       </c>
       <c r="I6" t="n">
-        <v>699736.5893344039</v>
+        <v>699701.8514089686</v>
       </c>
       <c r="J6" t="n">
-        <v>530322.5725083557</v>
+        <v>530287.8345829205</v>
       </c>
       <c r="K6" t="n">
-        <v>699736.5893344041</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="L6" t="n">
-        <v>699736.5893344039</v>
+        <v>699701.8514089682</v>
       </c>
       <c r="M6" t="n">
-        <v>568852.1324301686</v>
+        <v>568817.3945047329</v>
       </c>
       <c r="N6" t="n">
-        <v>699736.589334404</v>
+        <v>699701.8514089686</v>
       </c>
       <c r="O6" t="n">
-        <v>699736.5893344037</v>
+        <v>699701.8514089683</v>
       </c>
       <c r="P6" t="n">
-        <v>699736.589334404</v>
+        <v>699701.8514089686</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498449</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498449</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26960,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522341</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>339.9664944694682</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>378.315628588835</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
         <v>114.7793764994862</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>156.2032724229549</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>66.18138874948878</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>229.0131032129705</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>9.88700061847527</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>156.539936543683</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>25.38092201218028</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>292.2855647680138</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>268.5803031121537</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>208.9532125195984</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>167.4874464364243</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28333,13 +28333,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265706</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730742</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182605</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793979</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853283</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027923</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839336</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712727</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062754</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237521</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179235</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837064</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612564</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255621</v>
+        <v>19.52107049255622</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041654</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315581</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274807</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157839</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,46 +31437,46 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599261</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979553</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561278</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662511</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843065</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523075</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265706</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730742</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182605</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793979</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853283</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027923</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839336</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712727</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062754</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237521</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179235</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837064</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612564</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255621</v>
+        <v>19.52107049255622</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041654</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315581</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274807</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157839</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599261</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979553</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561278</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662511</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843065</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523075</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31838,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>555.1777416630679</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>431.3680753731345</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>260.171071406825</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32312,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>428.7353800421389</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319857</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>342.4905264542646</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>319.3879004196077</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N2" t="n">
         <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>611.548792175588</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>123.232039869694</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>331.5807458593582</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
         <v>492.5324261689369</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915742</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153411</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755196</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873411</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495859</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510059</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961994</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>190.2177045321225</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821471</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>568.1170166222633</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025569</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q6" t="n">
-        <v>237.4056613270733</v>
+        <v>328.1069739656115</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978366</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266584</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912599</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597959</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701675</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.7336217364322</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915742</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153411</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755196</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873427</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495859</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510059</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961994</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171363</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>380.0583769117615</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482248</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025569</v>
       </c>
       <c r="P9" t="n">
-        <v>497.4637052508702</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656115</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225508</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978366</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266584</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912599</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597959</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701675</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.7336217364322</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>416.6233618831937</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>297.3936679588043</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>122.329632432466</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>297.3936679588056</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875412</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>407.3236446867659</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
